--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:35:50+00:00</t>
+    <t>2025-07-18T06:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Element
+    <t xml:space="preserve">
 </t>
   </si>
   <si>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T06:40:38+00:00</t>
+    <t>2025-07-21T11:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,7 +270,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/TypeHoraire-vs</t>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R252-TypeHoraire?vs</t>
   </si>
   <si>
     <t>Horaire.ouvertureFermeture</t>
@@ -681,7 +681,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.08203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> La classe Horaire permet de définir les différentes plages d'un agenda d'une entité (jours et heures d'ouverture, période de fermeture, etc.).Synonymes (agendas partagés) : plages de disponibilités et d'indisponibilités</t>
+    <t>La classe Horaire permet de définir les différentes plages d'un agenda d'une entité (jours et heures d'ouverture, période de fermeture, etc.).Synonymes (agendas partagés) : plages de disponibilités et d'indisponibilités</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Identifiant de la plage horaire.</t>
+    <t>Identifiant de la plage horaire.</t>
   </si>
   <si>
     <t>Horaire.typePlageHoraire</t>
@@ -264,7 +264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Un type de plage horaire apporte du contexte à la plage horaire définie par la suite. Par exemple horaire d'ouverture, horaire de garde, etc.</t>
+    <t>Un type de plage horaire apporte du contexte à la plage horaire définie par la suite. Par exemple horaire d'ouverture, horaire de garde, etc.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -280,7 +280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Indicateur d'ouverture ou de fermeture.Valeurs possibles : 0 = Organisation fermée 1 = Organisation ouverte</t>
+    <t>Indicateur d'ouverture ou de fermeture.Valeurs possibles : 0 = Organisation fermée 1 = Organisation ouverte</t>
   </si>
   <si>
     <t>Horaire.jourSemaine</t>
@@ -290,7 +290,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Numéro du jour dans la semaine. D'après la norme ISO 8601, les jours de chaque semaine sont numérotés de 1 (un) pour le lundi, à 7 (sept) pour le dimanche.</t>
+    <t>Numéro du jour dans la semaine. D'après la norme ISO 8601, les jours de chaque semaine sont numérotés de 1 (un) pour le lundi, à 7 (sept) pour le dimanche.</t>
   </si>
   <si>
     <t>Horaire.heureDebut</t>
@@ -300,19 +300,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Heure de début de la plage horaire.</t>
+    <t>Heure de début de la plage horaire.</t>
   </si>
   <si>
     <t>Horaire.heureFin</t>
   </si>
   <si>
-    <t xml:space="preserve"> Heure de fin de la plage horaire.</t>
+    <t>Heure de fin de la plage horaire.</t>
   </si>
   <si>
     <t>Horaire.frequencePlageHoraire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fréquence de la plage horaire.Exemple : toutes les semaines, toutes les deux semaines, tous les mois, etc.</t>
+    <t>Fréquence de la plage horaire.Exemple : toutes les semaines, toutes les deux semaines, tous les mois, etc.</t>
   </si>
   <si>
     <t>Horaire.debutDateEffective</t>
@@ -322,19 +322,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date effective de début de l'ouverture ou de la fermeture, cet attribut permet de caractériser les jours d'ouverture ou de fermeture exceptionnelle.</t>
+    <t>Date effective de début de l'ouverture ou de la fermeture, cet attribut permet de caractériser les jours d'ouverture ou de fermeture exceptionnelle.</t>
   </si>
   <si>
     <t>Horaire.finDateEffective</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date effective de fin de l'ouverture ou de la fermeture, cet attribut permet de caractériser les jours d'ouverture ou de fermeture exceptionnelle.</t>
+    <t>Date effective de fin de l'ouverture ou de la fermeture, cet attribut permet de caractériser les jours d'ouverture ou de fermeture exceptionnelle.</t>
   </si>
   <si>
     <t>Horaire.dateDeclarationPlageHoraire</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date de déclaration de la plage horaire.</t>
+    <t>Date de déclaration de la plage horaire.</t>
   </si>
   <si>
     <t>Horaire.commentaire</t>
@@ -344,7 +344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Zone de commentaires contenant des informations relatives aux heures de fonctionnement, notamment des exceptions d'horaire, des raisons liées à la fermeture ou l'ouverture.</t>
+    <t>Zone de commentaires contenant des informations relatives aux heures de fonctionnement, notamment des exceptions d'horaire, des raisons liées à la fermeture ou l'ouverture.</t>
   </si>
 </sst>
 </file>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,7 +270,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R252-TypeHoraire?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R252-TypeHoraire/FHIR/TRE-R252-TypeHoraire?vs</t>
   </si>
   <si>
     <t>Horaire.ouvertureFermeture</t>
@@ -681,7 +681,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.5859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>La classe Horaire permet de définir les différentes plages d'un agenda d'une entité (jours et heures d'ouverture, période de fermeture, etc.).Synonymes (agendas partagés) : plages de disponibilités et d'indisponibilités</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>La classe Horaire permet de définir les différentes plages d'un agenda d'une entité (jours et heures d'ouverture, période de fermeture, etc.).Synonymes (agendas partagés) : plages de disponibilités et d'indisponibilités</t>
   </si>
   <si>
     <t>Base</t>
@@ -578,39 +578,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -618,26 +620,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -695,112 +697,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -812,95 +814,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -912,23 +914,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -942,65 +944,65 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -1012,23 +1014,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>81</v>
@@ -1042,26 +1044,26 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
         <v>83</v>
@@ -1071,34 +1073,34 @@
         <v>84</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1110,23 +1112,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>86</v>
@@ -1140,65 +1142,65 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1210,23 +1212,23 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>89</v>
@@ -1240,65 +1242,65 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1310,23 +1312,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>92</v>
@@ -1340,65 +1342,65 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -1410,23 +1412,23 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>92</v>
@@ -1440,65 +1442,65 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1510,23 +1512,23 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>81</v>
@@ -1540,65 +1542,65 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -1610,23 +1612,23 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>99</v>
@@ -1640,65 +1642,65 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -1710,23 +1712,23 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>99</v>
@@ -1740,65 +1742,65 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1810,23 +1812,23 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>99</v>
@@ -1840,65 +1842,65 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -1910,23 +1912,23 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>106</v>
@@ -1940,65 +1942,65 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-Horaire.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/Horaire</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/Horaire</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
